--- a/docs/WRJ's mod history.xlsx
+++ b/docs/WRJ's mod history.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruijuewang/Desktop/DSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC9017A-7907-224A-9272-800A1E5B322E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C147C928-0BEC-5B45-8CCA-9525C9448FC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="67">
   <si>
     <t>CS1010S</t>
   </si>
@@ -138,88 +138,100 @@
     <t xml:space="preserve">Faculty Requirement </t>
   </si>
   <si>
-    <t>GE requiremnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miscellanous </t>
-  </si>
-  <si>
     <t xml:space="preserve">As of date: </t>
   </si>
   <si>
     <t>CS Minor</t>
   </si>
   <si>
-    <t>Sum:</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>EC3102</t>
   </si>
   <si>
     <t>CS4225</t>
   </si>
   <si>
+    <t>Y1S1</t>
+  </si>
+  <si>
+    <t>Y1S2</t>
+  </si>
+  <si>
+    <t>Y2S1</t>
+  </si>
+  <si>
+    <t>Y2S2</t>
+  </si>
+  <si>
+    <t>Y3S1</t>
+  </si>
+  <si>
+    <t>Y3S2</t>
+  </si>
+  <si>
+    <t>EC2104</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>EC2303</t>
+  </si>
+  <si>
+    <t>EC3303</t>
+  </si>
+  <si>
+    <t>CS1010+</t>
+  </si>
+  <si>
+    <t>MA1102R</t>
+  </si>
+  <si>
+    <t>EC3312</t>
+  </si>
+  <si>
+    <t>LSM1301</t>
+  </si>
+  <si>
+    <t>GES1028</t>
+  </si>
+  <si>
+    <t>require</t>
+  </si>
+  <si>
+    <t>GE requirement</t>
+  </si>
+  <si>
+    <t>Y4S1</t>
+  </si>
+  <si>
+    <t>ST4245</t>
+  </si>
+  <si>
+    <t>EC3333</t>
+  </si>
+  <si>
+    <t>EC3305R</t>
+  </si>
+  <si>
     <t>DSA4199</t>
   </si>
   <si>
-    <t>16MC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EC Double Major  </t>
-  </si>
-  <si>
-    <t>Y1S1</t>
-  </si>
-  <si>
-    <t>Y1S2</t>
-  </si>
-  <si>
-    <t>Y2S1</t>
-  </si>
-  <si>
-    <t>Y2S2</t>
-  </si>
-  <si>
-    <t>Y3S1</t>
-  </si>
-  <si>
-    <t>Y3S2</t>
-  </si>
-  <si>
-    <t>EC2104</t>
-  </si>
-  <si>
-    <t>EC</t>
-  </si>
-  <si>
-    <t>EC2303</t>
-  </si>
-  <si>
-    <t>EC3303</t>
-  </si>
-  <si>
-    <t>CS1010+</t>
-  </si>
-  <si>
-    <t>MA1102R</t>
-  </si>
-  <si>
-    <t>EC3312</t>
-  </si>
-  <si>
-    <t>LSM1301</t>
-  </si>
-  <si>
-    <t>GES1028</t>
-  </si>
-  <si>
-    <t>require</t>
-  </si>
-  <si>
-    <t>FYP/FYI</t>
+    <t xml:space="preserve">EC Second Major  </t>
+  </si>
+  <si>
+    <t>80+16FYP</t>
+  </si>
+  <si>
+    <t>CS Minor (12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EC Second Major (40)  </t>
+  </si>
+  <si>
+    <t>Y4S2</t>
+  </si>
+  <si>
+    <t>CS3230</t>
   </si>
 </sst>
 </file>
@@ -264,7 +276,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,6 +301,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -302,24 +332,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,533 +631,560 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.5" customWidth="1"/>
-    <col min="16" max="16" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="10">
+        <v>39</v>
+      </c>
+      <c r="B1" s="8">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="10">
+        <v>40</v>
+      </c>
+      <c r="E1" s="8">
         <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="10">
+        <v>41</v>
+      </c>
+      <c r="H1" s="8">
         <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="10">
+        <v>42</v>
+      </c>
+      <c r="K1" s="8">
         <v>24</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N1" s="10">
+        <v>43</v>
+      </c>
+      <c r="N1" s="8">
         <v>24</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="8">
+        <v>20</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" s="8">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2">
+        <v>4</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="2">
+        <v>4</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="11">
+        <v>4</v>
+      </c>
+      <c r="P3" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q3" s="12">
+        <v>4</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="T3" s="2">
+        <v>8</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="W3" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2">
+        <v>4</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="12">
+        <v>4</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="2">
+        <v>4</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>4</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="T4" s="15">
+        <v>4</v>
+      </c>
+      <c r="V4" t="s">
+        <v>66</v>
+      </c>
+      <c r="W4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="9">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="2">
+        <v>4</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="12">
+        <v>4</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="2">
+        <v>4</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>4</v>
+      </c>
+      <c r="S5" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="T5" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="10">
+        <v>4</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="9">
+        <v>4</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2">
+        <v>4</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="12">
+        <v>4</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>4</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="T6" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9">
+        <v>4</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="9">
+        <v>4</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="12">
+        <v>4</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="2">
+        <v>4</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="2">
+        <v>4</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10">
+        <v>2</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="9">
+        <v>4</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="2">
+        <v>4</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="12">
+        <v>4</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="2">
+        <v>4</v>
+      </c>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="12">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3">
-        <v>4</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="8">
-        <v>4</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q3">
-        <v>4</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4">
-        <v>4</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="9">
-        <v>4</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="J5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5">
-        <v>4</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="9">
-        <v>4</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="J6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6">
-        <v>4</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="9">
-        <v>4</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-      <c r="J7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7">
-        <v>4</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="9">
-        <v>4</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8">
-        <v>4</v>
-      </c>
-      <c r="J8" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8">
-        <v>4</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="9">
-        <v>4</v>
-      </c>
-      <c r="P8" s="9"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9">
-        <v>4</v>
-      </c>
-      <c r="P9" s="9"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="J10" s="6"/>
-      <c r="K10" s="7"/>
-      <c r="P10" s="9"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H9" s="2">
+        <v>4</v>
+      </c>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="J10" s="5"/>
+      <c r="K10" s="6"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="5">
-        <v>80</v>
+      <c r="B14" s="14"/>
+      <c r="C14" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="D14" s="3">
         <v>96</v>
       </c>
-      <c r="E14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="5">
-        <v>4</v>
+      <c r="B15" s="14"/>
+      <c r="C15" s="4">
+        <v>8</v>
       </c>
       <c r="D15" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="5">
-        <v>16</v>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="4">
+        <v>24</v>
       </c>
       <c r="D16" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="5">
-        <v>16</v>
+      <c r="A17" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="4">
+        <v>20</v>
       </c>
       <c r="D17" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="5">
-        <v>7</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="5">
+      <c r="B18" s="14"/>
+      <c r="C18" s="4">
         <v>8</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D18" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21">
-        <f>SUM(C14:C19)</f>
-        <v>131</v>
-      </c>
-      <c r="D21">
-        <f>SUM(D14:D19)+C18</f>
-        <v>167</v>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="4">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="4">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="4">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
+      <c r="C25" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="5">
-        <v>4</v>
+      <c r="D25" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="5">
+        <v>51</v>
+      </c>
+      <c r="F25" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="5">
-        <v>4</v>
+        <v>47</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="5">
-        <v>4</v>
-      </c>
-      <c r="E27" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>16</v>
+        <v>46</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="14"/>
       <c r="C28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" t="s">
-        <v>58</v>
+        <v>49</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>57</v>
+        <v>26</v>
+      </c>
+      <c r="D29" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="11"/>
       <c r="C31" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="D31" s="4">
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35">
+        <v>66</v>
+      </c>
+      <c r="D32" s="7">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A19:B19"/>
+  <mergeCells count="7">
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
